--- a/data/raw/programas.xlsx
+++ b/data/raw/programas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gplaneta.sharepoint.com/sites/BIPOWER/Shared Documents/General/PBI/Marketing/inversion/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Mi unidad\Proyectos\Analisis morosidad\Github\prediccion-morosidad-educacion-superior\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="13_ncr:1_{D1D5BE9D-D33E-4A94-BB1F-CEA75EEB717C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56AE0CEF-5CDD-4F85-859A-7C90523A7FCA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCFA8EB-058E-4725-B28A-CDBE53F17A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="693" activeTab="1" xr2:uid="{8463D526-573D-4E6E-AC01-15B2913D8CB7}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" tabRatio="693" xr2:uid="{8463D526-573D-4E6E-AC01-15B2913D8CB7}"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMAS" sheetId="7" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="330">
   <si>
     <t>SI</t>
   </si>
@@ -993,42 +993,18 @@
     <t>Programas que contiene</t>
   </si>
   <si>
-    <t>https://onlinebs.obs-edu.com/mbas/</t>
-  </si>
-  <si>
-    <t>https://onlinebs.obs-edu.com/masters-innovacion/</t>
-  </si>
-  <si>
     <t>Transformación Digital y Desarrollo de Negocio</t>
   </si>
   <si>
     <t>Full Stack Development</t>
   </si>
   <si>
-    <t>https://onlinebs.obs-edu.com/masters-finanzas/</t>
-  </si>
-  <si>
     <t>FinTech</t>
   </si>
   <si>
-    <t>https://onlinebs.obs-edu.com/masters-data/</t>
-  </si>
-  <si>
-    <t>https://onlinebs.obs-edu.com/masters-operaciones-y-procesos/</t>
-  </si>
-  <si>
-    <t>https://onlinebs.obs-edu.com/masters-sistemas-y-tecnologia/</t>
-  </si>
-  <si>
-    <t>https://onlinebs.obs-edu.com/masters-marketing/</t>
-  </si>
-  <si>
     <t>Gestión de la Experiencia del Consumidor</t>
   </si>
   <si>
-    <t>https://onlinebs.obs-edu.com/masters-sostenibilidad/</t>
-  </si>
-  <si>
     <t>Sosteinibilidad</t>
   </si>
   <si>
@@ -1036,9 +1012,6 @@
   </si>
   <si>
     <t>Legal</t>
-  </si>
-  <si>
-    <t>URL</t>
   </si>
   <si>
     <t>Programa Normalizado</t>
@@ -1265,16 +1238,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left/>
         <right/>
@@ -1295,40 +1258,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1407,16 +1336,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left/>
         <right/>
@@ -1427,16 +1346,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1483,6 +1392,26 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left/>
         <right/>
@@ -1503,6 +1432,18 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1647,6 +1588,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left/>
         <right/>
@@ -1657,16 +1608,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1711,6 +1652,38 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2007,8 +1980,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4BD97320-8498-4269-923A-86796B77A1F5}" name="Tabla3" displayName="Tabla3" ref="A1:D53" totalsRowShown="0">
-  <autoFilter ref="A1:D53" xr:uid="{4BD97320-8498-4269-923A-86796B77A1F5}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4BD97320-8498-4269-923A-86796B77A1F5}" name="Tabla3" displayName="Tabla3" ref="A1:C53" totalsRowShown="0">
+  <autoFilter ref="A1:C53" xr:uid="{4BD97320-8498-4269-923A-86796B77A1F5}">
     <filterColumn colId="1">
       <filters>
         <filter val="Global Data Management"/>
@@ -2021,16 +1994,15 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">
     <sortCondition ref="A1:A43"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C216C058-EFED-4FFE-BC9A-B8A80F24BAA2}" name="Areas"/>
     <tableColumn id="2" xr3:uid="{63283989-1944-4E53-AA98-C6F7BA5E0704}" name="Programas que contiene"/>
     <tableColumn id="4" xr3:uid="{1F6163AF-3FA7-4F32-9F5A-ADA120557E0A}" name="Programa Normalizado" dataDxfId="65">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{833A0896-FD6D-4DF0-A787-E63AF897D9D9}" name="URL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2343,21 +2315,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1B4769-463A-4098-AD6A-137E214D5A1A}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2377,10 +2349,10 @@
         <v>305</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -2397,10 +2369,10 @@
         <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -2417,10 +2389,10 @@
         <v>307</v>
       </c>
       <c r="G3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -2437,10 +2409,10 @@
         <v>307</v>
       </c>
       <c r="G4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2457,10 +2429,10 @@
         <v>307</v>
       </c>
       <c r="G5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2477,10 +2449,10 @@
         <v>307</v>
       </c>
       <c r="G6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -2497,10 +2469,10 @@
         <v>307</v>
       </c>
       <c r="G7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2517,10 +2489,10 @@
         <v>307</v>
       </c>
       <c r="G8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2537,10 +2509,10 @@
         <v>307</v>
       </c>
       <c r="G9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -2554,10 +2526,10 @@
         <v>307</v>
       </c>
       <c r="G10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2565,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D11" t="s">
         <v>306</v>
@@ -2574,10 +2546,10 @@
         <v>307</v>
       </c>
       <c r="G11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>186</v>
       </c>
@@ -2591,10 +2563,10 @@
         <v>307</v>
       </c>
       <c r="G12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -2608,10 +2580,10 @@
         <v>307</v>
       </c>
       <c r="G13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -2628,10 +2600,10 @@
         <v>307</v>
       </c>
       <c r="G14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2654,7 +2626,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -2671,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2688,10 +2660,10 @@
         <v>307</v>
       </c>
       <c r="G17" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2705,10 +2677,10 @@
         <v>307</v>
       </c>
       <c r="G18" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>181</v>
       </c>
@@ -2725,10 +2697,10 @@
         <v>307</v>
       </c>
       <c r="G19" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>260</v>
       </c>
@@ -2742,10 +2714,10 @@
         <v>307</v>
       </c>
       <c r="G20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2762,10 +2734,10 @@
         <v>307</v>
       </c>
       <c r="G21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2782,10 +2754,10 @@
         <v>307</v>
       </c>
       <c r="G22" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2802,10 +2774,10 @@
         <v>307</v>
       </c>
       <c r="G23" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -2813,7 +2785,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D24" t="s">
         <v>103</v>
@@ -2828,7 +2800,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2836,7 +2808,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D25" t="s">
         <v>306</v>
@@ -2845,10 +2817,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2865,10 +2837,10 @@
         <v>307</v>
       </c>
       <c r="G26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2882,10 +2854,10 @@
         <v>307</v>
       </c>
       <c r="G27" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2902,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>233</v>
       </c>
@@ -2928,7 +2900,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2945,10 +2917,10 @@
         <v>307</v>
       </c>
       <c r="G30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2965,10 +2937,10 @@
         <v>307</v>
       </c>
       <c r="G31" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -2982,10 +2954,10 @@
         <v>307</v>
       </c>
       <c r="G32" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -3005,7 +2977,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -3022,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -3042,10 +3014,10 @@
         <v>307</v>
       </c>
       <c r="G35" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -3059,10 +3031,10 @@
         <v>307</v>
       </c>
       <c r="G36" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3076,10 +3048,10 @@
         <v>307</v>
       </c>
       <c r="G37" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3093,10 +3065,10 @@
         <v>307</v>
       </c>
       <c r="G38" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>257</v>
       </c>
@@ -3110,10 +3082,10 @@
         <v>307</v>
       </c>
       <c r="G39" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -3127,10 +3099,10 @@
         <v>307</v>
       </c>
       <c r="G40" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -3144,10 +3116,10 @@
         <v>307</v>
       </c>
       <c r="G41" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -3164,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>183</v>
       </c>
@@ -3190,7 +3162,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -3207,10 +3179,10 @@
         <v>307</v>
       </c>
       <c r="G44" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -3224,10 +3196,10 @@
         <v>307</v>
       </c>
       <c r="G45" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3241,7 +3213,7 @@
         <v>307</v>
       </c>
       <c r="G46" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3270,21 +3242,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95A5357-7A90-40F0-A487-2FF08FE29F5C}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
-    <col min="4" max="4" width="64" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>308</v>
       </c>
@@ -3292,15 +3263,12 @@
         <v>309</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s">
         <v>202</v>
@@ -3310,9 +3278,9 @@
         <v>COMERC</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
         <v>195</v>
@@ -3322,7 +3290,7 @@
         <v>IBM ESP</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>283</v>
       </c>
@@ -3333,11 +3301,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>BI</v>
       </c>
-      <c r="D4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>283</v>
       </c>
@@ -3348,11 +3313,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>BIG DATA</v>
       </c>
-      <c r="D5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>283</v>
       </c>
@@ -3363,11 +3325,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>GDATA</v>
       </c>
-      <c r="D6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>283</v>
       </c>
@@ -3378,11 +3337,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>IA</v>
       </c>
-      <c r="D7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>285</v>
       </c>
@@ -3393,26 +3349,20 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>FINANC</v>
       </c>
-      <c r="D8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C9" t="str">
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>FINTECH</v>
       </c>
-      <c r="D9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -3423,11 +3373,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>OPER</v>
       </c>
-      <c r="D10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -3438,11 +3385,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>PM ESP</v>
       </c>
-      <c r="D11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>281</v>
       </c>
@@ -3453,11 +3397,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>PROD</v>
       </c>
-      <c r="D12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -3468,11 +3409,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>SUPPLY</v>
       </c>
-      <c r="D13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>281</v>
       </c>
@@ -3483,26 +3421,20 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>SUPPLY ENG</v>
       </c>
-      <c r="D14" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>286</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C15" t="str">
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>FULL</v>
       </c>
-      <c r="D15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -3513,11 +3445,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>IA</v>
       </c>
-      <c r="D16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -3528,28 +3457,22 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>INNOV</v>
       </c>
-      <c r="D17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>286</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C18" t="str">
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>TR DIGI</v>
       </c>
-      <c r="D18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B19" t="s">
         <v>226</v>
@@ -3558,13 +3481,10 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>IBM ENG</v>
       </c>
-      <c r="D19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B20" t="s">
         <v>195</v>
@@ -3573,11 +3493,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>IBM ESP</v>
       </c>
-      <c r="D20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>284</v>
       </c>
@@ -3588,11 +3505,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>CIBER</v>
       </c>
-      <c r="D21" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>284</v>
       </c>
@@ -3603,11 +3517,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>DEVOPS</v>
       </c>
-      <c r="D22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>284</v>
       </c>
@@ -3618,11 +3529,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>OPER</v>
       </c>
-      <c r="D23" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>284</v>
       </c>
@@ -3633,11 +3541,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>PM ESP</v>
       </c>
-      <c r="D24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>284</v>
       </c>
@@ -3648,11 +3553,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>PROD</v>
       </c>
-      <c r="D25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>284</v>
       </c>
@@ -3663,13 +3565,10 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>SISTEM</v>
       </c>
-      <c r="D26" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B27" t="s">
         <v>212</v>
@@ -3679,9 +3578,9 @@
         <v>DERECHO</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B28" t="s">
         <v>263</v>
@@ -3691,7 +3590,7 @@
         <v>DERECHO DIG.</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>282</v>
       </c>
@@ -3702,11 +3601,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>BRAND</v>
       </c>
-      <c r="D29" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>282</v>
       </c>
@@ -3717,26 +3613,20 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>COMUNIC</v>
       </c>
-      <c r="D30" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>282</v>
       </c>
       <c r="B31" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C31" t="str">
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>CX</v>
       </c>
-      <c r="D31" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>282</v>
       </c>
@@ -3747,11 +3637,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>MKT EC</v>
       </c>
-      <c r="D32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>282</v>
       </c>
@@ -3762,11 +3649,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>MKT GC</v>
       </c>
-      <c r="D33" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -3777,11 +3661,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>NEURO MKT</v>
       </c>
-      <c r="D34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -3792,11 +3673,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>VENTAS</v>
       </c>
-      <c r="D35" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -3807,11 +3685,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>EMBA ENG</v>
       </c>
-      <c r="D36" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -3822,11 +3697,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>EMBA ESP</v>
       </c>
-      <c r="D37" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -3837,11 +3709,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>GMBA</v>
       </c>
-      <c r="D38" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -3852,11 +3721,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>TMBA</v>
       </c>
-      <c r="D39" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>287</v>
       </c>
@@ -3868,7 +3734,7 @@
         <v>G SANITARIA</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>287</v>
       </c>
@@ -3880,9 +3746,9 @@
         <v>SALUD</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s">
         <v>119</v>
@@ -3891,13 +3757,10 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>RSC</v>
       </c>
-      <c r="D42" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s">
         <v>109</v>
@@ -3906,11 +3769,8 @@
         <f>_xlfn.XLOOKUP(Tabla3[[#This Row],[Programas que contiene]],'NORMALIZACION PROGRAMAS'!B:B,'NORMALIZACION PROGRAMAS'!C:C,"",0,1)</f>
         <v>SOSTEN</v>
       </c>
-      <c r="D43" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3921,7 +3781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -3932,9 +3792,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
@@ -3943,9 +3803,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -3954,9 +3814,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
@@ -3965,9 +3825,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
@@ -3976,9 +3836,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -3987,9 +3847,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s">
         <v>30</v>
@@ -3998,9 +3858,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -4009,9 +3869,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s">
         <v>258</v>
@@ -4024,47 +3884,9 @@
   <conditionalFormatting sqref="B44">
     <cfRule type="duplicateValues" dxfId="60" priority="1"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="D39" r:id="rId1" xr:uid="{8FAE6AD8-B0C4-4DDC-A7C0-FF7D8A4E3F53}"/>
-    <hyperlink ref="D37" r:id="rId2" xr:uid="{F75B48BE-D2F4-4310-9C89-5B713FF7E2CE}"/>
-    <hyperlink ref="D38" r:id="rId3" xr:uid="{1BAE8C47-4E03-4822-9C11-657EA26E8421}"/>
-    <hyperlink ref="D17" r:id="rId4" xr:uid="{8019F326-4C02-4F82-9F93-81AC1EAC1EAB}"/>
-    <hyperlink ref="D18" r:id="rId5" xr:uid="{37C3C843-7071-406B-B107-572333B3B5A4}"/>
-    <hyperlink ref="D16" r:id="rId6" xr:uid="{5377BD1A-AAE6-417C-AF39-E542AADC12EA}"/>
-    <hyperlink ref="D15" r:id="rId7" xr:uid="{2FFB77CB-33A7-461D-A7C7-0F98846DA287}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{9F9CB05B-E3F2-4EB9-B7F6-E5EF26D0FF17}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{E0DB382A-9DD3-46EC-9F97-4D88A16A1A0B}"/>
-    <hyperlink ref="D6" r:id="rId10" xr:uid="{ADBAACF9-E27E-48C0-BA9F-A78712D8551F}"/>
-    <hyperlink ref="D4" r:id="rId11" xr:uid="{638D18AC-BAE2-4241-AFE3-04875E9477F1}"/>
-    <hyperlink ref="D5" r:id="rId12" xr:uid="{4ACE0D5F-BAE2-4DD6-8218-CC100273A3D4}"/>
-    <hyperlink ref="D7" r:id="rId13" xr:uid="{652C269A-EFF2-4FC1-809F-76106A96EC4A}"/>
-    <hyperlink ref="D10" r:id="rId14" xr:uid="{B0AF004C-0840-4851-94D5-4D3D1B7F5ACA}"/>
-    <hyperlink ref="D12" r:id="rId15" xr:uid="{E04C0A5C-C868-4D21-B395-320B98F0F37D}"/>
-    <hyperlink ref="D13" r:id="rId16" xr:uid="{0417D691-62ED-4CBB-A4A5-683BD4703B6C}"/>
-    <hyperlink ref="D11" r:id="rId17" xr:uid="{0C470C0F-8D38-4FBB-BC27-D6950B1F2CE1}"/>
-    <hyperlink ref="D14" r:id="rId18" xr:uid="{96DB7E59-BF81-441F-96AA-6857F2831FEB}"/>
-    <hyperlink ref="D24" r:id="rId19" xr:uid="{1AEFF226-F107-4215-AC1A-5EE2ED5D3C21}"/>
-    <hyperlink ref="D26" r:id="rId20" xr:uid="{FB25E410-EC70-46B5-A502-BB188F96F30B}"/>
-    <hyperlink ref="D21" r:id="rId21" xr:uid="{61E4F985-E749-4E82-AC61-0BEB1D144D50}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{1D6037C8-E915-45C7-BEF2-D0E6B5DE739C}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{DABEEB5E-AFB9-4A7B-B303-AAC77BA97DCC}"/>
-    <hyperlink ref="D33" r:id="rId24" xr:uid="{ED85DB94-8BA4-49F5-81D0-4C7181596E26}"/>
-    <hyperlink ref="D32" r:id="rId25" xr:uid="{9816C952-9A14-46D9-936D-861D52327D3F}"/>
-    <hyperlink ref="D22" r:id="rId26" xr:uid="{E3B265CF-1367-417A-8757-8CABF9595193}"/>
-    <hyperlink ref="D35" r:id="rId27" xr:uid="{BD3749E0-B312-4F3B-AA39-2AE94F72864D}"/>
-    <hyperlink ref="D31" r:id="rId28" xr:uid="{6D83AEAF-A7DD-4320-B45B-1CA6A970A304}"/>
-    <hyperlink ref="D34" r:id="rId29" xr:uid="{8E2E5F4D-787A-4D4D-9D95-C6BFE7FF7266}"/>
-    <hyperlink ref="D29" r:id="rId30" xr:uid="{3F522050-4869-4CBF-819C-FD741CE4E88E}"/>
-    <hyperlink ref="D30" r:id="rId31" xr:uid="{0E2D20F5-C4F2-47F7-BBC2-FA722E806B37}"/>
-    <hyperlink ref="D42" r:id="rId32" xr:uid="{0405C353-F0ED-4F64-9DB7-612D4CDCF973}"/>
-    <hyperlink ref="D43" r:id="rId33" xr:uid="{5538A9BD-D2C5-475C-8908-7254979A5947}"/>
-    <hyperlink ref="D36" r:id="rId34" xr:uid="{9A758737-C84B-4F8C-808A-AAFB8D7C5A63}"/>
-    <hyperlink ref="D20" r:id="rId35" xr:uid="{42871843-E689-4CE5-916D-C14463F0CBEF}"/>
-    <hyperlink ref="D19" r:id="rId36" xr:uid="{E3FC47DE-9902-4E4C-87E4-1E0E1BBF3018}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4078,16 +3900,16 @@
       <selection pane="bottomLeft" activeCell="B313" sqref="B313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -4101,7 +3923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
@@ -4109,7 +3931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -4117,7 +3939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -4125,7 +3947,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -4133,7 +3955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
@@ -4141,7 +3963,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4149,7 +3971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -4157,7 +3979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -4165,7 +3987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -4173,7 +3995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -4181,7 +4003,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -4189,7 +4011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -4197,7 +4019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
@@ -4205,7 +4027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
@@ -4213,7 +4035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -4221,7 +4043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -4229,7 +4051,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -4237,7 +4059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
@@ -4245,7 +4067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
@@ -4253,7 +4075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
@@ -4261,7 +4083,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
@@ -4269,7 +4091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
@@ -4277,7 +4099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
@@ -4285,7 +4107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
@@ -4293,7 +4115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
@@ -4301,7 +4123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
@@ -4309,7 +4131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
@@ -4317,7 +4139,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>34</v>
       </c>
@@ -4325,7 +4147,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>35</v>
       </c>
@@ -4333,7 +4155,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>36</v>
       </c>
@@ -4341,7 +4163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>57</v>
       </c>
@@ -4349,7 +4171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>59</v>
       </c>
@@ -4357,7 +4179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>56</v>
       </c>
@@ -4365,7 +4187,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>55</v>
       </c>
@@ -4373,7 +4195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>44</v>
       </c>
@@ -4381,7 +4203,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>45</v>
       </c>
@@ -4389,7 +4211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>46</v>
       </c>
@@ -4397,7 +4219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>47</v>
       </c>
@@ -4405,7 +4227,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>60</v>
       </c>
@@ -4413,7 +4235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>48</v>
       </c>
@@ -4421,7 +4243,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>51</v>
       </c>
@@ -4429,7 +4251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>50</v>
       </c>
@@ -4437,7 +4259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>52</v>
       </c>
@@ -4445,7 +4267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>53</v>
       </c>
@@ -4453,7 +4275,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>54</v>
       </c>
@@ -4461,7 +4283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
@@ -4469,7 +4291,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>42</v>
       </c>
@@ -4477,7 +4299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>61</v>
       </c>
@@ -4485,7 +4307,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>41</v>
       </c>
@@ -4493,7 +4315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>58</v>
       </c>
@@ -4501,7 +4323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>40</v>
       </c>
@@ -4509,7 +4331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>49</v>
       </c>
@@ -4517,7 +4339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>39</v>
       </c>
@@ -4525,7 +4347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>62</v>
       </c>
@@ -4533,7 +4355,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>38</v>
       </c>
@@ -4541,7 +4363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>37</v>
       </c>
@@ -4549,7 +4371,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>63</v>
       </c>
@@ -4557,7 +4379,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>74</v>
       </c>
@@ -4565,7 +4387,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>64</v>
       </c>
@@ -4573,7 +4395,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>65</v>
       </c>
@@ -4581,7 +4403,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>66</v>
       </c>
@@ -4592,7 +4414,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>68</v>
       </c>
@@ -4600,7 +4422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>69</v>
       </c>
@@ -4608,7 +4430,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>70</v>
       </c>
@@ -4616,7 +4438,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>71</v>
       </c>
@@ -4624,7 +4446,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>75</v>
       </c>
@@ -4632,7 +4454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>76</v>
       </c>
@@ -4640,7 +4462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
         <v>72</v>
       </c>
@@ -4648,7 +4470,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>73</v>
       </c>
@@ -4656,7 +4478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>106</v>
       </c>
@@ -4664,7 +4486,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>104</v>
       </c>
@@ -4672,7 +4494,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>101</v>
       </c>
@@ -4680,7 +4502,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>107</v>
       </c>
@@ -4688,7 +4510,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>105</v>
       </c>
@@ -4696,7 +4518,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>102</v>
       </c>
@@ -4704,7 +4526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>108</v>
       </c>
@@ -4712,7 +4534,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>90</v>
       </c>
@@ -4720,7 +4542,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>77</v>
       </c>
@@ -4728,7 +4550,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>83</v>
       </c>
@@ -4736,7 +4558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>85</v>
       </c>
@@ -4744,7 +4566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>97</v>
       </c>
@@ -4752,7 +4574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>98</v>
       </c>
@@ -4760,7 +4582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>93</v>
       </c>
@@ -4768,7 +4590,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>89</v>
       </c>
@@ -4776,7 +4598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>91</v>
       </c>
@@ -4784,7 +4606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>96</v>
       </c>
@@ -4792,7 +4614,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>100</v>
       </c>
@@ -4800,7 +4622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>88</v>
       </c>
@@ -4808,7 +4630,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>92</v>
       </c>
@@ -4816,7 +4638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>95</v>
       </c>
@@ -4824,7 +4646,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>84</v>
       </c>
@@ -4832,7 +4654,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>87</v>
       </c>
@@ -4840,7 +4662,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>86</v>
       </c>
@@ -4848,7 +4670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>99</v>
       </c>
@@ -4856,7 +4678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>78</v>
       </c>
@@ -4864,7 +4686,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>80</v>
       </c>
@@ -4872,7 +4694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>81</v>
       </c>
@@ -4880,7 +4702,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>94</v>
       </c>
@@ -4888,7 +4710,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>109</v>
       </c>
@@ -4896,7 +4718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>82</v>
       </c>
@@ -4904,7 +4726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>79</v>
       </c>
@@ -4912,7 +4734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>113</v>
       </c>
@@ -4920,7 +4742,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>114</v>
       </c>
@@ -4928,7 +4750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>115</v>
       </c>
@@ -4936,7 +4758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>96</v>
       </c>
@@ -4944,7 +4766,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>116</v>
       </c>
@@ -4952,7 +4774,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>117</v>
       </c>
@@ -4960,7 +4782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>118</v>
       </c>
@@ -4968,7 +4790,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>119</v>
       </c>
@@ -4976,7 +4798,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>120</v>
       </c>
@@ -4984,7 +4806,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>122</v>
       </c>
@@ -4992,7 +4814,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>111</v>
       </c>
@@ -5000,7 +4822,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>121</v>
       </c>
@@ -5008,7 +4830,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>112</v>
       </c>
@@ -5016,7 +4838,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="1" t="s">
         <v>126</v>
       </c>
@@ -5024,7 +4846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="1" t="s">
         <v>127</v>
       </c>
@@ -5032,7 +4854,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
         <v>128</v>
       </c>
@@ -5040,7 +4862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>34</v>
       </c>
@@ -5048,7 +4870,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>35</v>
       </c>
@@ -5056,7 +4878,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>129</v>
       </c>
@@ -5064,7 +4886,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>130</v>
       </c>
@@ -5072,7 +4894,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>131</v>
       </c>
@@ -5080,7 +4902,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>9</v>
       </c>
@@ -5088,7 +4910,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>132</v>
       </c>
@@ -5096,7 +4918,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>133</v>
       </c>
@@ -5104,7 +4926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>134</v>
       </c>
@@ -5112,7 +4934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>101</v>
       </c>
@@ -5120,7 +4942,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>135</v>
       </c>
@@ -5128,7 +4950,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>136</v>
       </c>
@@ -5136,7 +4958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>137</v>
       </c>
@@ -5144,7 +4966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>138</v>
       </c>
@@ -5152,7 +4974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>139</v>
       </c>
@@ -5160,7 +4982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>140</v>
       </c>
@@ -5168,7 +4990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>105</v>
       </c>
@@ -5176,7 +4998,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>141</v>
       </c>
@@ -5184,7 +5006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>142</v>
       </c>
@@ -5192,7 +5014,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>143</v>
       </c>
@@ -5200,7 +5022,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>144</v>
       </c>
@@ -5208,7 +5030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>145</v>
       </c>
@@ -5216,7 +5038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>146</v>
       </c>
@@ -5224,7 +5046,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>147</v>
       </c>
@@ -5232,7 +5054,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>148</v>
       </c>
@@ -5240,7 +5062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>149</v>
       </c>
@@ -5248,7 +5070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>150</v>
       </c>
@@ -5256,7 +5078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>151</v>
       </c>
@@ -5264,7 +5086,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>152</v>
       </c>
@@ -5272,7 +5094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>153</v>
       </c>
@@ -5280,7 +5102,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>154</v>
       </c>
@@ -5288,7 +5110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>155</v>
       </c>
@@ -5296,7 +5118,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>156</v>
       </c>
@@ -5304,7 +5126,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>157</v>
       </c>
@@ -5312,7 +5134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>158</v>
       </c>
@@ -5320,7 +5142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>102</v>
       </c>
@@ -5328,7 +5150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>159</v>
       </c>
@@ -5336,7 +5158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>160</v>
       </c>
@@ -5344,7 +5166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>161</v>
       </c>
@@ -5352,7 +5174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>162</v>
       </c>
@@ -5360,7 +5182,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>163</v>
       </c>
@@ -5368,7 +5190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>164</v>
       </c>
@@ -5376,7 +5198,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>165</v>
       </c>
@@ -5384,7 +5206,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>166</v>
       </c>
@@ -5392,7 +5214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>167</v>
       </c>
@@ -5400,7 +5222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>168</v>
       </c>
@@ -5408,7 +5230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>169</v>
       </c>
@@ -5416,7 +5238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>170</v>
       </c>
@@ -5424,7 +5246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>171</v>
       </c>
@@ -5432,7 +5254,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>90</v>
       </c>
@@ -5440,7 +5262,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>83</v>
       </c>
@@ -5448,7 +5270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>85</v>
       </c>
@@ -5456,7 +5278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>98</v>
       </c>
@@ -5464,7 +5286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>93</v>
       </c>
@@ -5472,7 +5294,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>91</v>
       </c>
@@ -5480,7 +5302,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>88</v>
       </c>
@@ -5488,7 +5310,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>92</v>
       </c>
@@ -5496,7 +5318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>84</v>
       </c>
@@ -5504,7 +5326,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>86</v>
       </c>
@@ -5512,7 +5334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>99</v>
       </c>
@@ -5520,7 +5342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>78</v>
       </c>
@@ -5528,7 +5350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>80</v>
       </c>
@@ -5536,7 +5358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>81</v>
       </c>
@@ -5544,7 +5366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>94</v>
       </c>
@@ -5552,7 +5374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>82</v>
       </c>
@@ -5560,7 +5382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>126</v>
       </c>
@@ -5568,7 +5390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>36</v>
       </c>
@@ -5576,7 +5398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" s="1" t="s">
         <v>80</v>
       </c>
@@ -5584,7 +5406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" s="1" t="s">
         <v>172</v>
       </c>
@@ -5592,7 +5414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" s="1" t="s">
         <v>173</v>
       </c>
@@ -5600,7 +5422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" s="1" t="s">
         <v>174</v>
       </c>
@@ -5608,7 +5430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190" s="1" t="s">
         <v>175</v>
       </c>
@@ -5616,7 +5438,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" s="1" t="s">
         <v>176</v>
       </c>
@@ -5624,7 +5446,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" s="1" t="s">
         <v>177</v>
       </c>
@@ -5632,7 +5454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" s="1" t="s">
         <v>178</v>
       </c>
@@ -5640,7 +5462,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194" s="1" t="s">
         <v>179</v>
       </c>
@@ -5648,7 +5470,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195" s="1" t="s">
         <v>180</v>
       </c>
@@ -5656,7 +5478,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196" s="1" t="s">
         <v>187</v>
       </c>
@@ -5664,7 +5486,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B197" s="1" t="s">
         <v>188</v>
       </c>
@@ -5672,7 +5494,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B198" s="1" t="s">
         <v>189</v>
       </c>
@@ -5680,7 +5502,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B199" s="1" t="s">
         <v>190</v>
       </c>
@@ -5688,7 +5510,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B200" s="1" t="s">
         <v>191</v>
       </c>
@@ -5696,7 +5518,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B201" s="1" t="s">
         <v>192</v>
       </c>
@@ -5704,7 +5526,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B202" s="9" t="s">
         <v>194</v>
       </c>
@@ -5712,7 +5534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B203" s="9" t="s">
         <v>196</v>
       </c>
@@ -5720,7 +5542,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B204" s="9" t="s">
         <v>197</v>
       </c>
@@ -5728,7 +5550,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B205" s="9" t="s">
         <v>198</v>
       </c>
@@ -5736,7 +5558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B206" s="9" t="s">
         <v>199</v>
       </c>
@@ -5744,7 +5566,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B207" s="9" t="s">
         <v>200</v>
       </c>
@@ -5752,7 +5574,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B208" s="9" t="s">
         <v>201</v>
       </c>
@@ -5760,7 +5582,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B209" s="9" t="s">
         <v>202</v>
       </c>
@@ -5768,7 +5590,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B210" s="9" t="s">
         <v>203</v>
       </c>
@@ -5776,7 +5598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B211" s="9" t="s">
         <v>228</v>
       </c>
@@ -5784,7 +5606,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B212" s="9" t="s">
         <v>205</v>
       </c>
@@ -5792,7 +5614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B213" s="9" t="s">
         <v>206</v>
       </c>
@@ -5800,7 +5622,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B214" s="9" t="s">
         <v>207</v>
       </c>
@@ -5808,7 +5630,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B215" s="9" t="s">
         <v>208</v>
       </c>
@@ -5816,7 +5638,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B216" s="9" t="s">
         <v>209</v>
       </c>
@@ -5824,7 +5646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B217" s="9" t="s">
         <v>210</v>
       </c>
@@ -5832,7 +5654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B218" s="9" t="s">
         <v>211</v>
       </c>
@@ -5840,7 +5662,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B219" s="9" t="s">
         <v>212</v>
       </c>
@@ -5848,7 +5670,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B220" s="9" t="s">
         <v>213</v>
       </c>
@@ -5856,7 +5678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B221" s="9" t="s">
         <v>214</v>
       </c>
@@ -5864,7 +5686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B222" s="9" t="s">
         <v>215</v>
       </c>
@@ -5872,7 +5694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B223" s="9" t="s">
         <v>216</v>
       </c>
@@ -5880,7 +5702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B224" s="9" t="s">
         <v>217</v>
       </c>
@@ -5888,7 +5710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B225" s="9" t="s">
         <v>218</v>
       </c>
@@ -5896,7 +5718,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B226" s="9" t="s">
         <v>219</v>
       </c>
@@ -5904,7 +5726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B227" s="9" t="s">
         <v>220</v>
       </c>
@@ -5912,7 +5734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B228" s="9" t="s">
         <v>229</v>
       </c>
@@ -5920,7 +5742,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B229" s="9" t="s">
         <v>221</v>
       </c>
@@ -5928,7 +5750,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B230" s="9" t="s">
         <v>222</v>
       </c>
@@ -5936,7 +5758,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B231" s="9" t="s">
         <v>223</v>
       </c>
@@ -5944,7 +5766,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B232" s="9" t="s">
         <v>224</v>
       </c>
@@ -5952,7 +5774,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B233" s="9" t="s">
         <v>230</v>
       </c>
@@ -5960,7 +5782,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B234" s="9" t="s">
         <v>226</v>
       </c>
@@ -5968,7 +5790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B235" s="9" t="s">
         <v>225</v>
       </c>
@@ -5976,7 +5798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B236" s="9" t="s">
         <v>227</v>
       </c>
@@ -5984,7 +5806,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B237" s="9" t="s">
         <v>231</v>
       </c>
@@ -5992,7 +5814,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B238" s="9" t="s">
         <v>232</v>
       </c>
@@ -6000,7 +5822,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B239" s="9" t="s">
         <v>204</v>
       </c>
@@ -6008,7 +5830,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B240" s="1" t="s">
         <v>236</v>
       </c>
@@ -6016,7 +5838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B241" s="1" t="s">
         <v>237</v>
       </c>
@@ -6024,7 +5846,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B242" s="1" t="s">
         <v>238</v>
       </c>
@@ -6032,7 +5854,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B243" s="1" t="s">
         <v>239</v>
       </c>
@@ -6040,7 +5862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B244" s="1" t="s">
         <v>240</v>
       </c>
@@ -6048,7 +5870,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B245" s="1" t="s">
         <v>241</v>
       </c>
@@ -6056,7 +5878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B246" s="1" t="s">
         <v>242</v>
       </c>
@@ -6064,7 +5886,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B247" s="1" t="s">
         <v>243</v>
       </c>
@@ -6072,7 +5894,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B248" s="1" t="s">
         <v>244</v>
       </c>
@@ -6080,7 +5902,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B249" s="1" t="s">
         <v>245</v>
       </c>
@@ -6088,7 +5910,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B250" s="1" t="s">
         <v>180</v>
       </c>
@@ -6096,7 +5918,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>246</v>
       </c>
@@ -6104,7 +5926,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>195</v>
       </c>
@@ -6113,7 +5935,7 @@
       </c>
       <c r="E252" s="6"/>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>179</v>
       </c>
@@ -6122,7 +5944,7 @@
       </c>
       <c r="E253" s="6"/>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>247</v>
       </c>
@@ -6131,7 +5953,7 @@
       </c>
       <c r="E254" s="6"/>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>248</v>
       </c>
@@ -6140,7 +5962,7 @@
       </c>
       <c r="E255" s="6"/>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>249</v>
       </c>
@@ -6149,7 +5971,7 @@
       </c>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B257" s="1" t="s">
         <v>250</v>
       </c>
@@ -6158,7 +5980,7 @@
       </c>
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B258" s="1" t="s">
         <v>251</v>
       </c>
@@ -6167,7 +5989,7 @@
       </c>
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" s="1" t="s">
         <v>252</v>
       </c>
@@ -6176,7 +5998,7 @@
       </c>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B260" s="1" t="s">
         <v>111</v>
       </c>
@@ -6185,7 +6007,7 @@
       </c>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B261" s="1" t="s">
         <v>253</v>
       </c>
@@ -6194,7 +6016,7 @@
       </c>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B262" s="1" t="s">
         <v>254</v>
       </c>
@@ -6203,7 +6025,7 @@
       </c>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B263" s="10" t="s">
         <v>255</v>
       </c>
@@ -6212,7 +6034,7 @@
       </c>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B264" s="1" t="s">
         <v>256</v>
       </c>
@@ -6221,7 +6043,7 @@
       </c>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B265" s="1" t="s">
         <v>256</v>
       </c>
@@ -6230,7 +6052,7 @@
       </c>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B266" s="1" t="s">
         <v>258</v>
       </c>
@@ -6239,7 +6061,7 @@
       </c>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B267" s="1" t="s">
         <v>259</v>
       </c>
@@ -6248,7 +6070,7 @@
       </c>
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B268" s="1" t="s">
         <v>261</v>
       </c>
@@ -6257,7 +6079,7 @@
       </c>
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B269" s="1" t="s">
         <v>262</v>
       </c>
@@ -6266,7 +6088,7 @@
       </c>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B270" s="1" t="s">
         <v>263</v>
       </c>
@@ -6275,7 +6097,7 @@
       </c>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B271" s="1" t="s">
         <v>264</v>
       </c>
@@ -6284,7 +6106,7 @@
       </c>
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B272" s="1" t="s">
         <v>265</v>
       </c>
@@ -6293,7 +6115,7 @@
       </c>
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B273" s="1" t="s">
         <v>237</v>
       </c>
@@ -6303,7 +6125,7 @@
       <c r="D273" s="1"/>
       <c r="G273"/>
     </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B274" s="1" t="s">
         <v>237</v>
       </c>
@@ -6313,7 +6135,7 @@
       <c r="D274" s="1"/>
       <c r="G274"/>
     </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B275" s="1" t="s">
         <v>266</v>
       </c>
@@ -6323,7 +6145,7 @@
       <c r="D275" s="1"/>
       <c r="G275"/>
     </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B276" s="12" t="s">
         <v>268</v>
       </c>
@@ -6333,7 +6155,7 @@
       <c r="D276" s="1"/>
       <c r="G276"/>
     </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B277" s="12" t="s">
         <v>267</v>
       </c>
@@ -6343,7 +6165,7 @@
       <c r="D277" s="1"/>
       <c r="G277"/>
     </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B278" s="1" t="s">
         <v>267</v>
       </c>
@@ -6353,7 +6175,7 @@
       <c r="D278" s="1"/>
       <c r="G278"/>
     </row>
-    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B279" s="1" t="s">
         <v>269</v>
       </c>
@@ -6363,7 +6185,7 @@
       <c r="D279" s="1"/>
       <c r="G279"/>
     </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
         <v>270</v>
       </c>
@@ -6373,7 +6195,7 @@
       <c r="D280" s="1"/>
       <c r="G280"/>
     </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>271</v>
       </c>
@@ -6383,7 +6205,7 @@
       <c r="D281" s="1"/>
       <c r="G281"/>
     </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
         <v>272</v>
       </c>
@@ -6393,7 +6215,7 @@
       <c r="D282" s="1"/>
       <c r="G282"/>
     </row>
-    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>275</v>
       </c>
@@ -6403,7 +6225,7 @@
       <c r="D283" s="1"/>
       <c r="G283"/>
     </row>
-    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>268</v>
       </c>
@@ -6413,7 +6235,7 @@
       <c r="D284" s="1"/>
       <c r="G284"/>
     </row>
-    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
         <v>274</v>
       </c>
@@ -6423,7 +6245,7 @@
       <c r="E285"/>
       <c r="I285"/>
     </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
         <v>273</v>
       </c>
@@ -6433,7 +6255,7 @@
       <c r="E286"/>
       <c r="I286"/>
     </row>
-    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
         <v>276</v>
       </c>
@@ -6443,7 +6265,7 @@
       <c r="E287"/>
       <c r="I287"/>
     </row>
-    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>277</v>
       </c>
@@ -6453,7 +6275,7 @@
       <c r="E288"/>
       <c r="I288"/>
     </row>
-    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
         <v>278</v>
       </c>
@@ -6463,7 +6285,7 @@
       <c r="E289"/>
       <c r="I289"/>
     </row>
-    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
         <v>279</v>
       </c>
@@ -6473,7 +6295,7 @@
       <c r="E290"/>
       <c r="I290"/>
     </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>280</v>
       </c>
@@ -6483,7 +6305,7 @@
       <c r="E291"/>
       <c r="I291"/>
     </row>
-    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>289</v>
       </c>
@@ -6493,7 +6315,7 @@
       <c r="E292"/>
       <c r="I292"/>
     </row>
-    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
         <v>289</v>
       </c>
@@ -6503,7 +6325,7 @@
       <c r="D293" s="13"/>
       <c r="I293"/>
     </row>
-    <row r="294" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
         <v>290</v>
       </c>
@@ -6513,7 +6335,7 @@
       <c r="D294" s="13"/>
       <c r="I294"/>
     </row>
-    <row r="295" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
         <v>109</v>
       </c>
@@ -6523,7 +6345,7 @@
       <c r="D295" s="13"/>
       <c r="I295"/>
     </row>
-    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
         <v>291</v>
       </c>
@@ -6533,7 +6355,7 @@
       <c r="E296"/>
       <c r="I296"/>
     </row>
-    <row r="297" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
         <v>292</v>
       </c>
@@ -6543,7 +6365,7 @@
       <c r="E297"/>
       <c r="I297"/>
     </row>
-    <row r="298" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
         <v>293</v>
       </c>
@@ -6553,7 +6375,7 @@
       <c r="E298"/>
       <c r="I298"/>
     </row>
-    <row r="299" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
         <v>294</v>
       </c>
@@ -6563,7 +6385,7 @@
       <c r="E299"/>
       <c r="I299"/>
     </row>
-    <row r="300" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
         <v>295</v>
       </c>
@@ -6573,7 +6395,7 @@
       <c r="E300"/>
       <c r="I300"/>
     </row>
-    <row r="301" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
         <v>296</v>
       </c>
@@ -6583,7 +6405,7 @@
       <c r="E301"/>
       <c r="I301"/>
     </row>
-    <row r="302" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
         <v>297</v>
       </c>
@@ -6593,7 +6415,7 @@
       <c r="E302"/>
       <c r="I302"/>
     </row>
-    <row r="303" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
         <v>298</v>
       </c>
@@ -6603,7 +6425,7 @@
       <c r="E303"/>
       <c r="I303"/>
     </row>
-    <row r="304" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>299</v>
       </c>
@@ -6613,7 +6435,7 @@
       <c r="E304"/>
       <c r="I304"/>
     </row>
-    <row r="305" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>300</v>
       </c>
@@ -6623,7 +6445,7 @@
       <c r="E305"/>
       <c r="I305"/>
     </row>
-    <row r="306" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>301</v>
       </c>
@@ -6633,7 +6455,7 @@
       <c r="E306"/>
       <c r="I306"/>
     </row>
-    <row r="307" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>302</v>
       </c>
@@ -6643,7 +6465,7 @@
       <c r="E307"/>
       <c r="I307"/>
     </row>
-    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
         <v>235</v>
       </c>
@@ -6653,9 +6475,9 @@
       <c r="E308"/>
       <c r="I308"/>
     </row>
-    <row r="309" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B309" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>63</v>
@@ -6663,9 +6485,9 @@
       <c r="E309"/>
       <c r="I309"/>
     </row>
-    <row r="310" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B310" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>181</v>
@@ -6673,9 +6495,9 @@
       <c r="E310"/>
       <c r="I310"/>
     </row>
-    <row r="311" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B311" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>46</v>
@@ -6683,9 +6505,9 @@
       <c r="E311"/>
       <c r="I311"/>
     </row>
-    <row r="312" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>72</v>
@@ -6693,9 +6515,9 @@
       <c r="E312"/>
       <c r="I312"/>
     </row>
-    <row r="313" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>64</v>
@@ -6703,9 +6525,9 @@
       <c r="E313"/>
       <c r="I313"/>
     </row>
-    <row r="314" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>45</v>
@@ -6713,9 +6535,9 @@
       <c r="E314"/>
       <c r="I314"/>
     </row>
-    <row r="315" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>55</v>
@@ -6723,65 +6545,65 @@
       <c r="E315"/>
       <c r="I315"/>
     </row>
-    <row r="316" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B316"/>
       <c r="E316"/>
       <c r="I316"/>
     </row>
-    <row r="317" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B317"/>
       <c r="E317"/>
       <c r="I317"/>
     </row>
-    <row r="318" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B318"/>
       <c r="E318"/>
       <c r="I318"/>
     </row>
-    <row r="319" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B319"/>
       <c r="E319"/>
       <c r="I319"/>
     </row>
-    <row r="320" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B320"/>
       <c r="E320"/>
       <c r="I320"/>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B321"/>
       <c r="E321"/>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B322"/>
       <c r="E322"/>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B323"/>
       <c r="E323"/>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B324"/>
       <c r="E324"/>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B325"/>
       <c r="E325"/>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B326"/>
       <c r="E326"/>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B327"/>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B328"/>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B329"/>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B330"/>
     </row>
   </sheetData>
@@ -6844,16 +6666,16 @@
     <cfRule type="duplicateValues" dxfId="43" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="42" priority="129">
+    <cfRule type="duplicateValues" dxfId="42" priority="128"/>
+    <cfRule type="expression" dxfId="41" priority="129">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="41" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="expression" dxfId="40" priority="127">
+    <cfRule type="duplicateValues" dxfId="40" priority="126"/>
+    <cfRule type="expression" dxfId="39" priority="127">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="39" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
     <cfRule type="duplicateValues" dxfId="38" priority="181"/>
@@ -6862,16 +6684,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="expression" dxfId="36" priority="125">
+    <cfRule type="duplicateValues" dxfId="36" priority="124"/>
+    <cfRule type="expression" dxfId="35" priority="125">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="35" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="expression" dxfId="34" priority="123">
+    <cfRule type="duplicateValues" dxfId="34" priority="122"/>
+    <cfRule type="expression" dxfId="33" priority="123">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="33" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
     <cfRule type="duplicateValues" dxfId="32" priority="120"/>
@@ -6885,22 +6707,22 @@
     <cfRule type="duplicateValues" dxfId="30" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118">
-    <cfRule type="expression" dxfId="29" priority="117">
+    <cfRule type="duplicateValues" dxfId="29" priority="116"/>
+    <cfRule type="expression" dxfId="28" priority="117">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="28" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="expression" dxfId="27" priority="103">
+    <cfRule type="duplicateValues" dxfId="27" priority="102"/>
+    <cfRule type="expression" dxfId="26" priority="103">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="26" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C260">
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="duplicateValues" dxfId="25" priority="30"/>
+    <cfRule type="expression" dxfId="24" priority="31">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="24" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C265">
     <cfRule type="duplicateValues" dxfId="23" priority="26"/>
@@ -6909,16 +6731,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C267">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C273">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
+    <cfRule type="expression" dxfId="18" priority="23">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C274">
     <cfRule type="expression" dxfId="17" priority="49">
@@ -6926,10 +6748,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C275">
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C277">
     <cfRule type="duplicateValues" dxfId="14" priority="16"/>
@@ -6943,34 +6765,34 @@
     <cfRule type="duplicateValues" dxfId="12" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C283:C284">
-    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>#REF!&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C286">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>#REF!&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C288">
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C286">
-    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
-    <cfRule type="expression" dxfId="8" priority="12">
+  <conditionalFormatting sqref="C290">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C288">
-    <cfRule type="expression" dxfId="7" priority="11">
+  <conditionalFormatting sqref="C297">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C290">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>#REF!&lt;&gt;#REF!</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C297">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>#REF!&lt;&gt;#REF!</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C300">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
@@ -6988,6 +6810,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A62BD1A1B5CAC249A95BCCCA1576DD25" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5406e40fd28c5e817779a822da0a175">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4f8e1ef-7590-4615-a0b0-41d92864fb7e" xmlns:ns3="396b9688-3d64-4f4f-b40d-59fd809f50b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b7e0cdc028a074783d87c1f5297bb23" ns2:_="" ns3:_="">
     <xsd:import namespace="e4f8e1ef-7590-4615-a0b0-41d92864fb7e"/>
@@ -7216,15 +7047,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7237,6 +7059,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E75A0DB-468B-44A3-A9EA-1D8DC99162AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B12B9BB-8739-41A0-BE67-67DAB61AC82D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7251,14 +7081,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E75A0DB-468B-44A3-A9EA-1D8DC99162AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
